--- a/3_multinomial/_dta/kmeans_cluster.xlsx
+++ b/3_multinomial/_dta/kmeans_cluster.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>complete_hierarquico</t>
+          <t>cluster.k3.cluster</t>
         </is>
       </c>
     </row>
@@ -382,7 +382,7 @@
         <v>-858.2204872828719</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         <v>-1429.69812264532</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -404,7 +404,7 @@
         <v>-946.7921967722016</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         <v>-800.9522001390468</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -426,7 +426,7 @@
         <v>-970.8363585731509</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>-608.9721237050995</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -448,7 +448,7 @@
         <v>-715.9647786325629</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -470,7 +470,7 @@
         <v>-6587.216087550996</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -481,7 +481,7 @@
         <v>-5784.402751266046</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -503,7 +503,7 @@
         <v>-6213.680373446971</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -514,7 +514,7 @@
         <v>-5519.050124148751</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         <v>-670.1750006258769</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -547,7 +547,7 @@
         <v>-5775.133999702598</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -558,7 +558,7 @@
         <v>-1207.257388420683</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -591,7 +591,7 @@
         <v>-1496.448312149509</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -602,7 +602,7 @@
         <v>-1472.546135831108</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>-687.680040032788</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>-773.4466696361803</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -635,7 +635,7 @@
         <v>-649.5178545032301</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>-868.015121390196</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -657,7 +657,7 @@
         <v>-1053.760814301206</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -668,7 +668,7 @@
         <v>-1765.923716489944</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -679,7 +679,7 @@
         <v>-985.3543828196873</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -690,7 +690,7 @@
         <v>-847.3497382161406</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -701,7 +701,7 @@
         <v>-809.760949410125</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -712,7 +712,7 @@
         <v>-772.756953477763</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -723,7 +723,7 @@
         <v>-1209.931215025978</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -734,7 +734,7 @@
         <v>-1264.596876448989</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -745,7 +745,7 @@
         <v>-1759.383028326152</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         <v>-1106.712423192897</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -789,7 +789,7 @@
         <v>-1134.11677697494</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -811,7 +811,7 @@
         <v>-1054.573137054719</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -822,7 +822,7 @@
         <v>-907.2245928596693</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -833,7 +833,7 @@
         <v>-988.1071893471927</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -899,7 +899,7 @@
         <v>-1201.766862026467</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -910,7 +910,7 @@
         <v>-1117.915252750252</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -921,7 +921,7 @@
         <v>-1142.171337262079</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -932,7 +932,7 @@
         <v>-682.6332459812126</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -943,7 +943,7 @@
         <v>-1196.243430049055</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -954,7 +954,7 @@
         <v>-1220.207482839816</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1020,7 +1020,7 @@
         <v>-1057.599837902805</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1031,7 +1031,7 @@
         <v>-1473.060975878673</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1042,7 +1042,7 @@
         <v>-856.1792327583562</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1053,7 +1053,7 @@
         <v>-804.6388158765624</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1064,7 +1064,7 @@
         <v>-1354.225994139863</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -1075,7 +1075,7 @@
         <v>-1215.689296312065</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1086,7 +1086,7 @@
         <v>-930.0475974213468</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         <v>-941.809712428886</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1108,7 +1108,7 @@
         <v>-866.0567133211591</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
